--- a/Список для обзвона/mass_fin.xlsx
+++ b/Список для обзвона/mass_fin.xlsx
@@ -1697,10 +1697,8 @@
           <t>ИП Старостина Е.В</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="D58" t="n">
+        <v>0</v>
       </c>
       <c r="E58" t="inlineStr"/>
     </row>
@@ -2278,7 +2276,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ; buh3@vspk.ru; to@vspk.ru</t>
+          <t xml:space="preserve">buh3@vspk.ru to@vspk.ru </t>
         </is>
       </c>
     </row>
@@ -3314,7 +3312,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ; urist@bryankonfi.ru;; urist1@bryankonfi.ru</t>
+          <t xml:space="preserve">urist@bryankonfi.ru; urist1@bryankonfi.ru </t>
         </is>
       </c>
     </row>
@@ -4602,7 +4600,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ; snab@elektrodetal.com; manicheva_yv@elektrodetal.com</t>
+          <t xml:space="preserve">snab@elektrodetal.com manicheva_yv@elektrodetal.com </t>
         </is>
       </c>
     </row>
@@ -8742,7 +8740,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ; zakupki@energongroup.ru; logist1@energongroup.ru</t>
+          <t xml:space="preserve">zakupki@energongroup.ru logist1@energongroup.ru </t>
         </is>
       </c>
     </row>
@@ -9601,7 +9599,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ; Li_DY@tkz.su; Minka_OA1@tkz.su</t>
+          <t xml:space="preserve">Li_DY@tkz.su Minka_OA1@tkz.su </t>
         </is>
       </c>
     </row>
@@ -11225,7 +11223,7 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ; pekarnyapryanik@mail.ru; unatom2@gmail.com</t>
+          <t xml:space="preserve">pekarnyapryanik@mail.ru unatom2@gmail.com </t>
         </is>
       </c>
     </row>
@@ -12241,10 +12239,8 @@
           <t>ИП Садовников Петр Петрович</t>
         </is>
       </c>
-      <c r="D536" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="D536" t="n">
+        <v>0</v>
       </c>
       <c r="E536" t="inlineStr"/>
     </row>
@@ -12260,10 +12256,8 @@
           <t>ООО ПИЩЕВИК</t>
         </is>
       </c>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>89243611303</t>
-        </is>
+      <c r="D537" t="n">
+        <v>89243611303</v>
       </c>
       <c r="E537" t="inlineStr"/>
     </row>
@@ -12317,10 +12311,8 @@
           <t xml:space="preserve">Татьяна </t>
         </is>
       </c>
-      <c r="D540" t="inlineStr">
-        <is>
-          <t>89142236335</t>
-        </is>
+      <c r="D540" t="n">
+        <v>89142236335</v>
       </c>
       <c r="E540" t="inlineStr"/>
     </row>
@@ -12336,10 +12328,8 @@
           <t>Ип</t>
         </is>
       </c>
-      <c r="D541" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="D541" t="n">
+        <v>0</v>
       </c>
       <c r="E541" t="inlineStr"/>
     </row>
@@ -12374,10 +12364,8 @@
           <t>ИП Винокурова Марианна Александровна</t>
         </is>
       </c>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="D543" t="n">
+        <v>0</v>
       </c>
       <c r="E543" t="inlineStr"/>
     </row>
@@ -12431,10 +12419,8 @@
           <t xml:space="preserve">Кондитер </t>
         </is>
       </c>
-      <c r="D546" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="D546" t="n">
+        <v>0</v>
       </c>
       <c r="E546" t="inlineStr"/>
     </row>
@@ -12469,10 +12455,8 @@
           <t>Sakha geek cafe</t>
         </is>
       </c>
-      <c r="D548" t="inlineStr">
-        <is>
-          <t>89681546922</t>
-        </is>
+      <c r="D548" t="n">
+        <v>89681546922</v>
       </c>
       <c r="E548" t="inlineStr"/>
     </row>
@@ -12507,10 +12491,8 @@
           <t xml:space="preserve">Ип </t>
         </is>
       </c>
-      <c r="D550" t="inlineStr">
-        <is>
-          <t>89148254676</t>
-        </is>
+      <c r="D550" t="n">
+        <v>89148254676</v>
       </c>
       <c r="E550" t="inlineStr"/>
     </row>
@@ -12637,7 +12619,7 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ; "custom@unichel.ru"; "minx74ru@mail.ru</t>
+          <t xml:space="preserve">"custom@unichel.ru" "minx74ru@mail.ru </t>
         </is>
       </c>
     </row>
@@ -13138,7 +13120,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ; anton.teplov@ru.mareven.com; yulia.chernyshova@ru.mareven.com</t>
+          <t xml:space="preserve">anton.teplov@ru.mareven.com yulia.chernyshova@ru.mareven.com </t>
         </is>
       </c>
     </row>
@@ -13606,7 +13588,7 @@
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ; yakovlev@vniisv.ru; omts.03@vniisv.ru</t>
+          <t xml:space="preserve">yakovlev@vniisv.ru omts.03@vniisv.ru </t>
         </is>
       </c>
     </row>

--- a/Список для обзвона/mass_fin.xlsx
+++ b/Список для обзвона/mass_fin.xlsx
@@ -3312,7 +3312,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t xml:space="preserve">urist@bryankonfi.ru; urist1@bryankonfi.ru </t>
+          <t xml:space="preserve">urist@bryankonfi.ru urist1@bryankonfi.ru </t>
         </is>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>2207;vkim@marr.ru</t>
+          <t>vkim@marr.ru</t>
         </is>
       </c>
     </row>

--- a/Список для обзвона/mass_fin.xlsx
+++ b/Список для обзвона/mass_fin.xlsx
@@ -2276,7 +2276,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">buh3@vspk.ru to@vspk.ru </t>
+          <t xml:space="preserve">buh3@vspk.ru; to@vspk.ru; </t>
         </is>
       </c>
     </row>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t xml:space="preserve">urist@bryankonfi.ru urist1@bryankonfi.ru </t>
+          <t xml:space="preserve">urist@bryankonfi.ru; urist1@bryankonfi.ru; </t>
         </is>
       </c>
     </row>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t xml:space="preserve">snab@elektrodetal.com manicheva_yv@elektrodetal.com </t>
+          <t xml:space="preserve">snab@elektrodetal.com; manicheva_yv@elektrodetal.com; </t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>molgrad@list/ru</t>
+          <t>molgrad@list</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t xml:space="preserve">zakupki@energongroup.ru logist1@energongroup.ru </t>
+          <t xml:space="preserve">zakupki@energongroup.ru; logist1@energongroup.ru; </t>
         </is>
       </c>
     </row>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t xml:space="preserve">Li_DY@tkz.su Minka_OA1@tkz.su </t>
+          <t xml:space="preserve">Li_DY@tkz.su; Minka_OA1@tkz.su; </t>
         </is>
       </c>
     </row>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t xml:space="preserve">pekarnyapryanik@mail.ru unatom2@gmail.com </t>
+          <t xml:space="preserve">pekarnyapryanik@mail.ru; unatom2@gmail.com; </t>
         </is>
       </c>
     </row>
@@ -12619,7 +12619,7 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t xml:space="preserve">"custom@unichel.ru" "minx74ru@mail.ru </t>
+          <t xml:space="preserve">"custom@unichel.ru"; "minx74ru@mail.ru; </t>
         </is>
       </c>
     </row>
@@ -12920,7 +12920,7 @@
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>&lt;ii.chekaleva@severstal.com&gt;</t>
+          <t>ii.chekaleva@severstal.com</t>
         </is>
       </c>
     </row>
@@ -13120,7 +13120,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t xml:space="preserve">anton.teplov@ru.mareven.com yulia.chernyshova@ru.mareven.com </t>
+          <t xml:space="preserve">anton.teplov@ru.mareven.com; yulia.chernyshova@ru.mareven.com; </t>
         </is>
       </c>
     </row>
@@ -13588,7 +13588,7 @@
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t xml:space="preserve">yakovlev@vniisv.ru omts.03@vniisv.ru </t>
+          <t xml:space="preserve">yakovlev@vniisv.ru; omts.03@vniisv.ru; </t>
         </is>
       </c>
     </row>
@@ -13706,7 +13706,7 @@
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>312-4898/izmailova@mltlvl.net</t>
+          <t>izmailova@mltlvl.net</t>
         </is>
       </c>
     </row>

--- a/Список для обзвона/mass_fin.xlsx
+++ b/Список для обзвона/mass_fin.xlsx
@@ -12619,7 +12619,7 @@
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t xml:space="preserve">"custom@unichel.ru"; "minx74ru@mail.ru; </t>
+          <t xml:space="preserve">custom@unichel.ru; minx74ru@mail.ru; </t>
         </is>
       </c>
     </row>
